--- a/FantasyFA.xlsx
+++ b/FantasyFA.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\OneDrive\Escritorio\Proyecto-fantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2856E14E-F92D-4619-95B2-D8F01A71DFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD64508B-C1B0-4326-8454-D94D1B1CCF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{CE258693-89AA-41E1-B74C-C0806FC02F64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estadisticas" sheetId="1" r:id="rId1"/>
@@ -35,14 +34,14 @@
     <sheet name="Montis" sheetId="68" r:id="rId19"/>
     <sheet name="Berned" sheetId="69" r:id="rId20"/>
     <sheet name="Tomas" sheetId="59" r:id="rId21"/>
-    <sheet name="Ignacio Die" sheetId="61" r:id="rId22"/>
-    <sheet name="Siegrist" sheetId="65" r:id="rId23"/>
-    <sheet name="Rubira" sheetId="64" r:id="rId24"/>
-    <sheet name="Jose Luis" sheetId="62" r:id="rId25"/>
-    <sheet name="Asier" sheetId="63" r:id="rId26"/>
-    <sheet name="Alfonso" sheetId="66" r:id="rId27"/>
-    <sheet name="Hugo" sheetId="67" r:id="rId28"/>
-    <sheet name="Moreno" sheetId="70" r:id="rId29"/>
+    <sheet name="Ignacio Die" sheetId="73" r:id="rId22"/>
+    <sheet name="Siegrist" sheetId="76" r:id="rId23"/>
+    <sheet name="Rubira" sheetId="77" r:id="rId24"/>
+    <sheet name="Jose Luis" sheetId="78" r:id="rId25"/>
+    <sheet name="Asier" sheetId="79" r:id="rId26"/>
+    <sheet name="Alfonso" sheetId="80" r:id="rId27"/>
+    <sheet name="Hugo" sheetId="75" r:id="rId28"/>
+    <sheet name="Moreno" sheetId="74" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="69">
   <si>
     <t>Partidos</t>
   </si>
@@ -141,9 +140,6 @@
   </si>
   <si>
     <t>GyA/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puntos </t>
   </si>
   <si>
     <t>Luis Moreno</t>
@@ -218,7 +214,10 @@
     <t>Montis</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Jugador</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>Torres</t>
@@ -260,7 +259,10 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>Goles</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Paradas</t>
   </si>
   <si>
     <t>Asistencias</t>
@@ -284,13 +286,13 @@
     <t>MVP</t>
   </si>
   <si>
-    <t>total</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Goles</t>
   </si>
   <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Jugador</t>
   </si>
 </sst>
 </file>
@@ -724,13 +726,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:T28"/>
+  <dimension ref="A2:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="89" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B3" zoomScale="89" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,15 +746,15 @@
     <col min="18" max="18" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -809,25 +808,22 @@
       <c r="S4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -846,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -854,46 +850,42 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="2" t="e">
+      <c r="O5" s="2">
         <f>D5/(D5+E5)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2">
         <f>($C$2-D5-E5)/$C$2*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
         <f>F5/(E5+D5)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R5" s="2">
         <f>H5/(E5+D5)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <f>K5/(D5+E5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="2">
-        <f>INT(C5/30)+D5+F5-H5+6*I5+3*J5-L5-M5-3*N5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -920,46 +912,42 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="e">
+      <c r="O6" s="2">
         <f t="shared" ref="O6:O28" si="1">D6/(D6+E6)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" ref="P6:P28" si="2">($C$2-D6-E6)/$C$2*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q28" si="3">F6/(E6+D6)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R6" s="2">
         <f t="shared" ref="R6:R28" si="4">H6/(E6+D6)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" ref="S6:S28" si="5">K6/(D6+E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" ref="T6:T13" si="6">INT(C6/30)+D6+F6-H6+6*I6+3*J6-L6-M6-3*N6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -978,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -986,46 +974,42 @@
       <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="e">
+      <c r="O7" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P7" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1044,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1052,34 +1036,30 @@
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2" t="e">
+      <c r="O8" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1122,9 +1102,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="2" t="e">
+      <c r="P9" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="2" t="e">
         <f t="shared" si="3"/>
@@ -1138,14 +1118,10 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1188,9 +1164,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="2" t="e">
+      <c r="P10" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="2" t="e">
         <f t="shared" si="3"/>
@@ -1204,26 +1180,22 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1232,17 +1204,17 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1250,46 +1222,42 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2" t="e">
+      <c r="O11" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P11" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R11" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1298,17 +1266,17 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -1316,34 +1284,30 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="2" t="e">
+      <c r="O12" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P12" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R12" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1386,9 +1350,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="2" t="e">
+      <c r="P13" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="2" t="e">
         <f t="shared" si="3"/>
@@ -1402,14 +1366,10 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1452,9 +1412,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="2" t="e">
+      <c r="P14" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="2" t="e">
         <f t="shared" si="3"/>
@@ -1468,26 +1428,22 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="2">
-        <f>INT(C14/30)+D14+F14-H14+5*I14+3*J14-L14-M14-3*N14</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1514,46 +1470,42 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="2" t="e">
+      <c r="O15" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R15" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="2">
-        <f t="shared" ref="T15:T24" si="7">INT(C15/30)+D15+F15-H15+5*I15+3*J15-L15-M15-3*N15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1562,17 +1514,17 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -1580,46 +1532,42 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="2" t="e">
+      <c r="O16" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P16" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R16" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1628,17 +1576,17 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -1646,46 +1594,42 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" s="2" t="e">
+      <c r="O17" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P17" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R17" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1704,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1712,34 +1656,30 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="2" t="e">
+      <c r="O18" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P18" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R18" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1782,9 +1722,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="2" t="e">
+      <c r="P19" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="2" t="e">
         <f t="shared" si="3"/>
@@ -1798,26 +1738,22 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1826,17 +1762,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -1844,34 +1780,30 @@
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="2" t="e">
+      <c r="O20" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P20" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R20" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1914,9 +1846,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="2" t="e">
+      <c r="P21" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="2" t="e">
         <f t="shared" si="3"/>
@@ -1930,26 +1862,22 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1976,34 +1904,30 @@
       <c r="N22" s="2">
         <v>0</v>
       </c>
-      <c r="O22" s="2" t="e">
+      <c r="O22" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R22" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -2046,9 +1970,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="2" t="e">
+      <c r="P23" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="2" t="e">
         <f t="shared" si="3"/>
@@ -2062,26 +1986,22 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -2090,64 +2010,60 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
       </c>
-      <c r="O24" s="2" t="e">
+      <c r="O24" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P24" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -2156,17 +2072,17 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -2174,34 +2090,30 @@
       <c r="N25" s="2">
         <v>0</v>
       </c>
-      <c r="O25" s="2" t="e">
+      <c r="O25" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="P25" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="2">
-        <f>INT(C25/30)+D25+F25-H25+4*I25+3*J25-L25-M25-3*N25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -2244,9 +2156,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="2" t="e">
+      <c r="P26" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="2" t="e">
         <f t="shared" si="3"/>
@@ -2260,26 +2172,22 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="2">
-        <f t="shared" ref="T26:T28" si="8">INT(C26/30)+D26+F26-H26+4*I26+3*J26-L26-M26-3*N26</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -2291,11 +2199,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2306,43 +2214,39 @@
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="2" t="e">
+      <c r="O27" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="R27" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -2354,14 +2258,14 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2372,29 +2276,25 @@
       <c r="N28" s="2">
         <v>0</v>
       </c>
-      <c r="O28" s="2" t="e">
+      <c r="O28" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2409,11 +2309,8 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2795,10 +2692,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -3105,10 +3004,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -3258,12 +3159,14 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -3413,9 +3316,11 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -3570,10 +3475,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,3,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -3724,9 +3631,11 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -3879,9 +3788,11 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -4036,7 +3947,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -4189,9 +4102,11 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -4344,9 +4259,11 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -4499,9 +4416,11 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -4654,7 +4573,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -4809,12 +4728,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -5009,9 +4928,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5393,12 +5309,10 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -5858,7 +5772,7 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -6013,7 +5927,7 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -6170,12 +6084,10 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="str">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,3,1-C10),1-C10),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -6326,14 +6238,12 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2">
         <f>-3*C11</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -6483,7 +6393,7 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -6793,7 +6703,7 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -6948,7 +6858,7 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -7103,7 +7013,7 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -7258,7 +7168,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -7413,12 +7323,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -7614,7 +7524,6 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8458,7 +8367,7 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -8613,7 +8522,7 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -8924,7 +8833,7 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -9079,7 +8988,7 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -9389,7 +9298,7 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -9544,7 +9453,7 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -9699,7 +9608,7 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -9854,7 +9763,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -10009,7 +9918,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -10209,9 +10118,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView topLeftCell="J1" workbookViewId="1">
-      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11055,7 +10961,7 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -11210,7 +11116,7 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -11520,7 +11426,7 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -11675,7 +11581,7 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -11985,7 +11891,7 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -12140,7 +12046,7 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -12295,7 +12201,7 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -12450,7 +12356,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -12605,7 +12511,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -12805,9 +12711,6 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13188,10 +13091,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>12</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -13498,7 +13403,9 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
         <v/>
@@ -13651,9 +13558,11 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*5</f>
         <v>0</v>
@@ -13806,9 +13715,11 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -13963,10 +13874,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -14116,9 +14029,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -14271,9 +14186,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -14428,7 +14345,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -14581,9 +14500,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -14736,9 +14657,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -14891,9 +14814,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -15046,7 +14971,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -15201,12 +15126,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -15401,9 +15326,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15784,10 +15706,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>78</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -16094,10 +16018,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -16247,12 +16173,14 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -16402,9 +16330,11 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -16559,10 +16489,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -16712,9 +16644,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -16867,9 +16801,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -17024,7 +16960,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -17177,9 +17115,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -17332,9 +17272,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -17487,9 +17429,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -17642,7 +17586,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -17797,12 +17741,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -17998,7 +17942,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18378,10 +18321,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>61</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -18688,10 +18633,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -18841,12 +18788,14 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -18996,12 +18945,14 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -19153,10 +19104,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -19306,9 +19259,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -19461,9 +19416,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -19618,7 +19575,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -19771,9 +19730,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -19926,9 +19887,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -20081,9 +20044,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -20236,7 +20201,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -20391,12 +20356,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -20592,7 +20557,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20972,10 +20936,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -21282,10 +21248,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -21435,9 +21403,11 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*5</f>
         <v>0</v>
@@ -21590,9 +21560,11 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -21747,10 +21719,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -21900,9 +21874,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -22055,9 +22031,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -22212,7 +22190,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -22365,9 +22345,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -22520,9 +22502,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -22675,9 +22659,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -22830,7 +22816,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -22985,12 +22971,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -23186,7 +23172,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView topLeftCell="E1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24029,7 +24014,7 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -24184,7 +24169,7 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -24494,7 +24479,7 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -24649,7 +24634,7 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -24959,7 +24944,7 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -25114,7 +25099,7 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -25269,7 +25254,7 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -25424,7 +25409,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -25579,7 +25564,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -25780,7 +25765,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26160,10 +26144,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>29</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -26470,7 +26456,9 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
         <v/>
@@ -26623,12 +26611,14 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -26778,9 +26768,11 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -26935,10 +26927,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -27088,9 +27082,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -27243,9 +27239,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -27400,7 +27398,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -27553,9 +27553,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -27708,9 +27710,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -27863,9 +27867,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -28018,7 +28024,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -28173,12 +28179,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -28371,10 +28377,7 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -28383,10 +28386,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -28481,15 +28484,15 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">SUM($C2:$AF2)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("'" &amp; $A2 &amp; "'!D18")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("'" &amp; $A2 &amp; "'!F18")</f>
@@ -28610,15 +28613,15 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B28" ca="1" si="0">SUM($C3:$AF3)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!D18")</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!F18")</f>
@@ -28739,15 +28742,15 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("'" &amp; $A4 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("'" &amp; $A4 &amp; "'!F18")</f>
@@ -28868,15 +28871,15 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("'" &amp; $A5 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("'" &amp; $A5 &amp; "'!F18")</f>
@@ -29126,7 +29129,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -29255,15 +29258,15 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("'" &amp; $A8 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("'" &amp; $A8 &amp; "'!F18")</f>
@@ -29384,15 +29387,15 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!F18")</f>
@@ -29513,15 +29516,15 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDIRECT("'" &amp; $A10 &amp; "'!D18")</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("'" &amp; $A10 &amp; "'!F18")</f>
@@ -29642,7 +29645,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -29771,15 +29774,15 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT("'" &amp; $A12 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("'" &amp; $A12 &amp; "'!F18")</f>
@@ -29900,15 +29903,15 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!F18")</f>
@@ -30029,15 +30032,15 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDIRECT("'" &amp; $A14 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("'" &amp; $A14 &amp; "'!F18")</f>
@@ -30162,11 +30165,11 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDIRECT("'" &amp; $A15 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("'" &amp; $A15 &amp; "'!F18")</f>
@@ -30287,7 +30290,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -30420,11 +30423,11 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!F18")</f>
@@ -30545,7 +30548,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -30674,15 +30677,15 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!F18")</f>
@@ -30803,7 +30806,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -30936,11 +30939,11 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDIRECT("'" &amp; $A21 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT("'" &amp; $A21 &amp; "'!F18")</f>
@@ -31061,15 +31064,15 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDIRECT("'" &amp; $A22 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("'" &amp; $A22 &amp; "'!F18")</f>
@@ -31319,15 +31322,15 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!F18")</f>
@@ -31448,15 +31451,15 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDIRECT("'" &amp; $A25 &amp; "'!D18")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("'" &amp; $A25 &amp; "'!F18")</f>
@@ -32007,10 +32010,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32854,7 +32854,7 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -33009,7 +33009,7 @@
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -33319,7 +33319,7 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -33474,7 +33474,7 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -33784,7 +33784,7 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -33939,7 +33939,7 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -34094,7 +34094,7 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -34249,7 +34249,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -34404,7 +34404,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -34602,11 +34602,8 @@
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34987,10 +34984,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -35297,10 +35296,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -35450,167 +35451,171 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
-        <f>C8*5</f>
-        <v>0</v>
+        <f>C8*4</f>
+        <v>4</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -35762,10 +35767,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -35915,9 +35922,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -36070,9 +36079,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -36227,7 +36238,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -36380,9 +36393,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -36535,9 +36550,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -36690,9 +36707,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -36845,12 +36864,14 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D17" s="2">
         <f>IF(EXACT(C17,"SI"),3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -37000,12 +37021,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -37192,16 +37213,15 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EB3EA-4F49-4DE3-9F33-CBC2EB432FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD01EAE-C698-4D9C-A56C-B8ACB9DA0226}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -38044,162 +38064,162 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <f>C8*5</f>
+        <f>C8*4</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -38509,7 +38529,7 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -38664,7 +38684,7 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -38974,7 +38994,7 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -39129,7 +39149,7 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -39284,7 +39304,7 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -39439,7 +39459,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -39594,7 +39614,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -39749,6 +39769,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -39765,38 +39800,20 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843BBEB2-3D9D-47B2-908E-61521358E197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C710BF1A-8CB6-4A79-9E16-1051E71F875F}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40177,10 +40194,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -40487,7 +40506,9 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
         <v/>
@@ -40640,164 +40661,168 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2">
-        <f>C8*5</f>
+        <f>C8*4</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -40952,10 +40977,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -41105,9 +41132,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -41260,9 +41289,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -41417,7 +41448,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -41570,9 +41603,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -41725,9 +41760,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -41880,9 +41917,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -42035,7 +42074,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -42190,12 +42229,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -42345,6 +42384,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -42361,28 +42415,13 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08BFD51-CCD1-4DF7-97A8-57A55B04C970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CA0FF4-E2B7-45D5-BA40-35425B9BFDA6}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -42391,7 +42430,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43234,162 +43272,162 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <f>C8*5</f>
+        <f>C8*4</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -43699,7 +43737,7 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -43854,7 +43892,7 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -44164,7 +44202,7 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -44319,7 +44357,7 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -44474,7 +44512,7 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -44629,7 +44667,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -44784,7 +44822,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -44939,6 +44977,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -44955,37 +45008,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC5E59-63F7-4EF3-9FAC-4D51D4A66F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEA0246-21DF-4055-9A57-D1CB45E07560}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -45365,10 +45402,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>71</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -45675,10 +45714,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -45828,164 +45869,168 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
-        <f>C8*5</f>
-        <v>0</v>
+        <f>C8*4</f>
+        <v>4</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -46140,10 +46185,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -46293,9 +46340,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -46448,12 +46497,14 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
@@ -46605,7 +46656,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -46758,9 +46811,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -46913,9 +46968,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -47068,9 +47125,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -47223,7 +47282,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -47378,12 +47437,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -47570,17 +47629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC922361-4DAF-4FD8-A010-084A51A00152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619A24E3-0BFB-42A7-BCE5-8E72D26DA090}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47961,10 +48017,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>71</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -48271,10 +48329,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -48424,164 +48484,168 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
       <c r="D8" s="2">
-        <f>C8*5</f>
-        <v>0</v>
+        <f>C8*4</f>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -48736,10 +48800,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -48889,9 +48955,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -49044,9 +49112,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -49201,7 +49271,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -49354,9 +49426,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -49509,9 +49583,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -49664,9 +49740,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -49819,7 +49897,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -49974,12 +50052,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -50166,16 +50244,15 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68936F2D-37EB-4B32-A623-953245E18474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8659C6-0542-4737-B8AD-6FDFD00CDADE}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -51018,162 +51095,162 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <f>C8*5</f>
+        <f>C8*4</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -51483,7 +51560,7 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -51638,7 +51715,7 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -51948,7 +52025,7 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -52103,7 +52180,7 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -52258,7 +52335,7 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -52413,7 +52490,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -52568,7 +52645,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -52760,16 +52837,15 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF7BCE6-ADE6-4200-9C06-9496B316C3F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0705FB4E-7F4C-4DBD-9CEB-39387F1BEF18}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -53149,10 +53225,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -53459,7 +53537,9 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
         <v/>
@@ -53612,167 +53692,171 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2">
-        <f>C8*5</f>
+        <f>C8*4</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -53924,10 +54008,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,2,1-C10),1-C10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -54077,9 +54163,11 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -54232,9 +54320,11 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -54389,7 +54479,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -54542,9 +54634,11 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -54697,9 +54791,11 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -54852,9 +54948,11 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -55007,7 +55105,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -55162,12 +55260,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -55317,6 +55415,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -55333,38 +55446,20 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A5DC0A-882D-401A-8069-884A9E5DED7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4F913-E3A2-477B-BFF5-25E55E74F830}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56208,162 +56303,162 @@
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <f>C8*5</f>
+        <f>C8*4</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*5</f>
+        <f>E8*4</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*5</f>
+        <f>G8*4</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*5</f>
+        <f>I8*4</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*5</f>
+        <f>K8*4</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*5</f>
+        <f>M8*4</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*5</f>
+        <f>O8*4</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*5</f>
+        <f>Q8*4</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*5</f>
+        <f>S8*4</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*5</f>
+        <f>U8*4</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*5</f>
+        <f>W8*4</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*5</f>
+        <f>Y8*4</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*5</f>
+        <f>AA8*4</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*5</f>
+        <f>AC8*4</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*5</f>
+        <f>AE8*4</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*5</f>
+        <f>AG8*4</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*5</f>
+        <f>AI8*4</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*5</f>
+        <f>AK8*4</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*5</f>
+        <f>AM8*4</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*5</f>
+        <f>AO8*4</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*5</f>
+        <f>AQ8*4</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*5</f>
+        <f>AS8*4</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*5</f>
+        <f>AU8*4</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*5</f>
+        <f>AW8*4</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*5</f>
+        <f>AY8*4</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*5</f>
+        <f>BA8*4</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*5</f>
+        <f>BC8*4</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*5</f>
+        <f>BE8*4</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*5</f>
+        <f>BG8*4</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*5</f>
+        <f>BI8*4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -56673,7 +56768,7 @@
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -56828,7 +56923,7 @@
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -57138,7 +57233,7 @@
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -57293,7 +57388,7 @@
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -57448,7 +57543,7 @@
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -57603,7 +57698,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -57758,7 +57853,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -57913,6 +58008,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -57929,21 +58039,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57956,11 +58051,8 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58342,10 +58434,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -58652,10 +58746,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -58805,164 +58901,168 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
       <c r="D8" s="2">
-        <f>C8*6</f>
-        <v>0</v>
+        <f>INT(C8/2)</f>
+        <v>1</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f>E8*6</f>
+        <f>INT(E8/2)</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>G8*6</f>
+        <f>INT(G8/2)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>I8*6</f>
+        <f>INT(I8/2)</f>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>K8*6</f>
+        <f>INT(K8/2)</f>
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>M8*6</f>
+        <f>INT(M8/2)</f>
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>O8*6</f>
+        <f>INT(O8/2)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <f>Q8*6</f>
+        <f>INT(Q8/2)</f>
         <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>S8*6</f>
+        <f>INT(S8/2)</f>
         <v>0</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <f>U8*6</f>
+        <f>INT(U8/2)</f>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2">
-        <f>W8*6</f>
+        <f>INT(W8/2)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f>Y8*6</f>
+        <f>INT(Y8/2)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
-        <f>AA8*6</f>
+        <f>INT(AA8/2)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
-        <f>AC8*6</f>
+        <f>INT(AC8/2)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
-        <f>AE8*6</f>
+        <f>INT(AE8/2)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <f>AG8*6</f>
+        <f>INT(AG8/2)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2">
-        <f>AI8*6</f>
+        <f>INT(AI8/2)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2">
-        <f>AK8*6</f>
+        <f>INT(AK8/2)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2">
-        <f>AM8*6</f>
+        <f>INT(AM8/2)</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
-        <f>AO8*6</f>
+        <f>INT(AO8/2)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <f>AQ8*6</f>
+        <f>INT(AQ8/2)</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
-        <f>AS8*6</f>
+        <f>INT(AS8/2)</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <f>AU8*6</f>
+        <f>INT(AU8/2)</f>
         <v>0</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2">
-        <f>AW8*6</f>
+        <f>INT(AW8/2)</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
-        <f>AY8*6</f>
+        <f>INT(AY8/2)</f>
         <v>0</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
-        <f>BA8*6</f>
+        <f>INT(BA8/2)</f>
         <v>0</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <f>BC8*6</f>
+        <f>INT(BC8/2)</f>
         <v>0</v>
       </c>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <f>BE8*6</f>
+        <f>INT(BE8/2)</f>
         <v>0</v>
       </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2">
-        <f>BG8*6</f>
+        <f>INT(BG8/2)</f>
         <v>0</v>
       </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2">
-        <f>BI8*6</f>
+        <f>INT(BI8/2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -59117,10 +59217,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,4,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -59271,9 +59373,11 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -59426,9 +59530,11 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -59583,7 +59689,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -59736,9 +59844,11 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -59891,9 +60001,11 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -60046,9 +60158,11 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -60201,14 +60315,12 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
         <f>IF(EXACT(C17,"SI"),3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -60358,12 +60470,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -60556,11 +60668,8 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60942,10 +61051,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>29</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -61252,7 +61363,9 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
         <v/>
@@ -61405,14 +61518,14 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <f>C8*6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -61562,14 +61675,14 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
         <f>C9*3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -61721,10 +61834,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,3,1-C10),1-C10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -61875,9 +61990,11 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -62030,9 +62147,11 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -62187,7 +62306,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -62340,9 +62461,11 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -62495,9 +62618,11 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -62650,9 +62775,11 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -62805,7 +62932,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -62960,12 +63087,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -63161,7 +63288,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -63542,10 +63668,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -63852,10 +63980,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -64005,9 +64135,11 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*6</f>
         <v>0</v>
@@ -64160,9 +64292,11 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -64317,10 +64451,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,3,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -64471,9 +64607,11 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -64626,9 +64764,11 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -64783,7 +64923,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -64936,9 +65078,11 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -65091,9 +65235,11 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -65246,9 +65392,11 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -65401,7 +65549,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -65556,12 +65704,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -65754,11 +65902,8 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66140,10 +66285,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>61</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -66450,10 +66597,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -66603,9 +66752,11 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*6</f>
         <v>0</v>
@@ -66758,9 +66909,11 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -66915,10 +67068,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,3,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -67069,9 +67224,11 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -67224,9 +67381,11 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -67381,7 +67540,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -67534,9 +67695,11 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -67689,9 +67852,11 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -67844,9 +68009,11 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -67999,7 +68166,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -68154,12 +68321,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -68355,7 +68522,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -69199,7 +69365,7 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -69354,7 +69520,7 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -69665,7 +69831,7 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -69820,7 +69986,7 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -70130,7 +70296,7 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -70285,7 +70451,7 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -70440,7 +70606,7 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -70595,7 +70761,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -70750,7 +70916,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -70951,7 +71117,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -71795,7 +71960,7 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -71950,7 +72115,7 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -72261,7 +72426,7 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -72416,7 +72581,7 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -72726,7 +72891,7 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -72881,7 +73046,7 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -73036,7 +73201,7 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -73191,7 +73356,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -73346,7 +73511,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -73547,7 +73712,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -73928,10 +74092,12 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(C5&gt;0,INT(C5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -74238,10 +74404,12 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
         <f>IF(C5&gt;=30,IF(EXACT(C7,"W"),2,IF(EXACT(C7,"D"),1,IF(EXACT(C7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
@@ -74391,12 +74559,14 @@
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
         <f>C8*6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -74546,9 +74716,11 @@
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f>C9*3</f>
         <v>0</v>
@@ -74703,10 +74875,12 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <f>IF(ISNUMBER(C10),IF(C5&gt;=60,IF(C10=0,3,1-C10),1-C10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
@@ -74857,9 +75031,11 @@
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f>-3*C11</f>
         <v>0</v>
@@ -75012,9 +75188,11 @@
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f>-C12</f>
         <v>0</v>
@@ -75169,7 +75347,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f>-3*C13</f>
         <v>0</v>
@@ -75322,9 +75502,11 @@
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f>-2*C14</f>
         <v>0</v>
@@ -75477,9 +75659,11 @@
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f>3*C15</f>
         <v>0</v>
@@ -75632,9 +75816,11 @@
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f>-3*C16</f>
         <v>0</v>
@@ -75787,7 +75973,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -75942,12 +76128,12 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -76131,4 +76317,291 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E368F3AA85887A4CA471FBE89C87D197" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b1343ec65646c710bc751e9b74f210e0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d147b059-24c6-415e-9a90-53ef61b07cc6" xmlns:ns4="f6019bca-d41b-489a-ac12-65458f2a9db6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27602d17861db3158979750089072dd5" ns3:_="" ns4:_="">
+    <xsd:import namespace="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
+    <xsd:import namespace="f6019bca-d41b-489a-ac12-65458f2a9db6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d147b059-24c6-415e-9a90-53ef61b07cc6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6019bca-d41b-489a-ac12-65458f2a9db6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d147b059-24c6-415e-9a90-53ef61b07cc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E01DE2-EED2-413F-923D-38288BFD7C42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
+    <ds:schemaRef ds:uri="f6019bca-d41b-489a-ac12-65458f2a9db6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5922835F-278F-452E-896E-915B82F9AD66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9FE74A-0BD6-4D60-B977-9F383147B27F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/FantasyFA.xlsx
+++ b/FantasyFA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\OneDrive\Escritorio\Proyecto-fantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD64508B-C1B0-4326-8454-D94D1B1CCF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B408F99-93C8-4C97-AEA7-D6C183B684D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4883,6 +4883,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -4899,21 +4914,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7478,6 +7478,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -7494,21 +7509,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10073,6 +10073,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -10089,21 +10104,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12666,21 +12666,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -12697,6 +12682,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15281,6 +15281,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -15297,21 +15312,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17896,6 +17896,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -17912,21 +17927,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20511,6 +20511,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -20527,21 +20542,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23126,6 +23126,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -23142,21 +23157,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25719,6 +25719,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -25735,21 +25750,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28334,6 +28334,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -28350,21 +28365,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34559,6 +34559,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -34575,21 +34590,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37176,6 +37176,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -37192,21 +37207,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39769,21 +39769,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -39800,6 +39785,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42384,21 +42384,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -42415,6 +42400,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44977,21 +44977,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -45008,6 +44993,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47592,6 +47592,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -47608,21 +47623,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50207,6 +50207,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -50223,21 +50238,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52800,6 +52800,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -52816,21 +52831,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55415,21 +55415,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -55446,6 +55431,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58008,21 +58008,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -58039,6 +58024,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60625,6 +60625,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="S3:T3"/>
@@ -60641,21 +60656,6 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63242,6 +63242,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -63258,21 +63273,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65859,6 +65859,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -65875,21 +65890,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -68476,6 +68476,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -68492,21 +68507,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -71071,6 +71071,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -71087,21 +71102,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -73666,6 +73666,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -73682,21 +73697,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -76283,6 +76283,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -76299,27 +76314,29 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d147b059-24c6-415e-9a90-53ef61b07cc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E368F3AA85887A4CA471FBE89C87D197" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b1343ec65646c710bc751e9b74f210e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d147b059-24c6-415e-9a90-53ef61b07cc6" xmlns:ns4="f6019bca-d41b-489a-ac12-65458f2a9db6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27602d17861db3158979750089072dd5" ns3:_="" ns4:_="">
     <xsd:import namespace="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
@@ -76552,24 +76569,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9FE74A-0BD6-4D60-B977-9F383147B27F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d147b059-24c6-415e-9a90-53ef61b07cc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5922835F-278F-452E-896E-915B82F9AD66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E01DE2-EED2-413F-923D-38288BFD7C42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -76586,22 +76604,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5922835F-278F-452E-896E-915B82F9AD66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9FE74A-0BD6-4D60-B977-9F383147B27F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>